--- a/Computer Management Project/Weteoes/Software.xlsx
+++ b/Computer Management Project/Weteoes/Software.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4D67E9F-ED91-48B8-B55B-560E34FB3724}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BA39BC-ED5D-4774-91D2-5AA8F5659BF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8535" yWindow="6600" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exit Code" sheetId="1" r:id="rId1"/>
     <sheet name="依赖性" sheetId="2" r:id="rId2"/>
+    <sheet name="端口" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>CComputerApp::Loading</t>
   </si>
@@ -106,6 +107,18 @@
   </si>
   <si>
     <t>libcrypto-1_1-x64.dll, Dll_Client, Dll_Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComputerUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于进程间通讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,14 +175,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586BE86-0FEC-4A29-985C-A9C95E84BB7F}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -658,28 +680,77 @@
       <c r="H5" s="3"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A7:H7"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127762D-566F-4FCE-BFCA-BD6C60A77DDF}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <v>23332</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>23333</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Computer Management Project/Weteoes/Software.xlsx
+++ b/Computer Management Project/Weteoes/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BA39BC-ED5D-4774-91D2-5AA8F5659BF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A708C783-370A-4FF5-8E76-B04BEE20410F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8535" yWindow="6600" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6075" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exit Code" sheetId="1" r:id="rId1"/>
@@ -94,10 +94,6 @@
     <t>SocketClass::RebootSoftware</t>
   </si>
   <si>
-    <t>Dll_SR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dll_Config</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +115,10 @@
   </si>
   <si>
     <t>用于进程间通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dll_SRW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,16 +182,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586BE86-0FEC-4A29-985C-A9C95E84BB7F}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -626,70 +626,70 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="B1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -710,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127762D-566F-4FCE-BFCA-BD6C60A77DDF}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -726,7 +726,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2">
         <v>23332</v>
@@ -737,14 +737,14 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>23333</v>
       </c>
     </row>

--- a/Computer Management Project/Weteoes/Software.xlsx
+++ b/Computer Management Project/Weteoes/Software.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A708C783-370A-4FF5-8E76-B04BEE20410F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B3426-01C7-4D6B-8D2C-1499E7DC2973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exit Code" sheetId="1" r:id="rId1"/>
@@ -615,7 +615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586BE86-0FEC-4A29-985C-A9C95E84BB7F}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:H5"/>
     </sheetView>
   </sheetViews>
@@ -710,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127762D-566F-4FCE-BFCA-BD6C60A77DDF}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -729,7 +729,7 @@
         <v>25</v>
       </c>
       <c r="B2" s="2">
-        <v>23332</v>
+        <v>23330</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">

--- a/Computer Management Project/Weteoes/Software.xlsx
+++ b/Computer Management Project/Weteoes/Software.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7B3426-01C7-4D6B-8D2C-1499E7DC2973}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4226191-0F02-4E2A-A9FB-553FE25CD342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="1860" windowWidth="21600" windowHeight="11145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exit Code" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>CComputerApp::Loading</t>
   </si>
@@ -119,6 +119,20 @@
   </si>
   <si>
     <t>Dll_SRW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次运行需要授予管理员</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>0x12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过服务重新启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -518,89 +532,105 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -710,7 +740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1127762D-566F-4FCE-BFCA-BD6C60A77DDF}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
